--- a/web/Mb/制单模板.xlsx
+++ b/web/Mb/制单模板.xlsx
@@ -16,105 +16,89 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="25">
-  <si>
-    <t>输入码</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>出发地城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出发地区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地省份</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地城市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地区县</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建单公司</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建单号</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>目的地详细地址</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>销售员</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物信息备注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>承运公司（专线）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>负责人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>版本1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设备码</t>
   </si>
   <si>
     <t>出发地省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出发地城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>出发地区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地省份</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地城市</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地区县</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建单公司</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>建单号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>预计小时数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>推送短信</t>
   </si>
   <si>
     <t>出发地详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>目的地详细地址</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>销售员</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物信息备注</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>承运公司（专线）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>联系方式</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货单位</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>收货人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>货物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>包装</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>重量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>体积</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>版本1</t>
+  </si>
+  <si>
+    <t>负责人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>收货人联系方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预计到达时间（小时）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -122,9 +106,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="177" formatCode="0_);[Red]\(0\)"/>
-  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -179,12 +160,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -192,8 +170,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -489,229 +467,138 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F50"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="5" width="16.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="22.125" style="1" customWidth="1"/>
+    <col min="2" max="5" width="16.625" style="3" customWidth="1"/>
     <col min="6" max="6" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" customHeight="1">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18" customHeight="1">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="18" customHeight="1">
+      <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="18" customHeight="1">
-      <c r="A2" s="2" t="s">
+    </row>
+    <row r="4" spans="1:6" ht="18" customHeight="1">
+      <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="3"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" ht="18" customHeight="1">
-      <c r="A3" s="2" t="s">
+    </row>
+    <row r="5" spans="1:6" ht="18" customHeight="1">
+      <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="3"/>
-      <c r="C3" s="3"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" ht="18" customHeight="1">
-      <c r="A4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18" customHeight="1">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" ht="18" customHeight="1">
-      <c r="A5" s="2" t="s">
+    </row>
+    <row r="7" spans="1:6" ht="18" customHeight="1">
+      <c r="A7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" ht="18" customHeight="1">
-      <c r="A6" s="2" t="s">
+    </row>
+    <row r="8" spans="1:6" ht="18" customHeight="1">
+      <c r="A8" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" ht="18" customHeight="1">
-      <c r="A7" s="2" t="s">
+    </row>
+    <row r="9" spans="1:6" ht="18" customHeight="1">
+      <c r="A9" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" ht="18" customHeight="1">
-      <c r="A8" s="2" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="18" customHeight="1">
+      <c r="A10" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="18" customHeight="1">
+      <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="18" customHeight="1">
+      <c r="A12" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="18" customHeight="1">
+      <c r="A13" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" ht="18" customHeight="1">
-      <c r="A9" s="2" t="s">
+    </row>
+    <row r="14" spans="1:6" ht="18" customHeight="1">
+      <c r="A14" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" ht="18" customHeight="1">
-      <c r="A10" s="2" t="s">
+    </row>
+    <row r="15" spans="1:6" ht="18" customHeight="1">
+      <c r="A15" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" ht="18" customHeight="1">
-      <c r="A11" s="2" t="s">
+    </row>
+    <row r="16" spans="1:6" ht="18" customHeight="1">
+      <c r="A16" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" ht="18" customHeight="1">
-      <c r="A12" s="2" t="s">
+    </row>
+    <row r="17" spans="1:1" ht="18" customHeight="1">
+      <c r="A17" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" ht="18" customHeight="1">
-      <c r="A13" s="2" t="s">
+    </row>
+    <row r="18" spans="1:1" ht="18" customHeight="1">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="18" customHeight="1">
+      <c r="A19" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3"/>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" ht="18" customHeight="1">
-      <c r="A14" s="2" t="s">
+    </row>
+    <row r="20" spans="1:1" ht="18" customHeight="1">
+      <c r="A20" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" ht="18" customHeight="1">
-      <c r="A15" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" ht="18" customHeight="1">
-      <c r="A16" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="1:5" ht="18" customHeight="1">
-      <c r="A17" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="3"/>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="1:5" ht="18" customHeight="1">
-      <c r="A18" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18" s="3"/>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="1:5" ht="18" customHeight="1">
-      <c r="A19" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B19" s="3"/>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-    </row>
-    <row r="20" spans="1:5" ht="18" customHeight="1">
-      <c r="A20" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B20" s="3"/>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-    </row>
-    <row r="21" spans="1:5" ht="18" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" s="2" t="s">
+    </row>
+    <row r="21" spans="1:1" ht="18" customHeight="1">
+      <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="18" customHeight="1"/>
-    <row r="23" spans="1:5" ht="18" customHeight="1"/>
-    <row r="24" spans="1:5" ht="18" customHeight="1"/>
-    <row r="25" spans="1:5" ht="18" customHeight="1"/>
-    <row r="26" spans="1:5" ht="18" customHeight="1"/>
-    <row r="27" spans="1:5" ht="18" customHeight="1"/>
-    <row r="28" spans="1:5" ht="18" customHeight="1"/>
-    <row r="29" spans="1:5" ht="18" customHeight="1"/>
-    <row r="30" spans="1:5" ht="18" customHeight="1"/>
-    <row r="31" spans="1:5" ht="18" customHeight="1"/>
-    <row r="32" spans="1:5" ht="18" customHeight="1"/>
+    </row>
+    <row r="22" spans="1:1" ht="18" customHeight="1"/>
+    <row r="23" spans="1:1" ht="18" customHeight="1"/>
+    <row r="24" spans="1:1" ht="18" customHeight="1"/>
+    <row r="25" spans="1:1" ht="18" customHeight="1"/>
+    <row r="26" spans="1:1" ht="18" customHeight="1"/>
+    <row r="27" spans="1:1" ht="18" customHeight="1"/>
+    <row r="28" spans="1:1" ht="18" customHeight="1"/>
+    <row r="29" spans="1:1" ht="18" customHeight="1"/>
+    <row r="30" spans="1:1" ht="18" customHeight="1"/>
+    <row r="31" spans="1:1" ht="18" customHeight="1"/>
+    <row r="32" spans="1:1" ht="18" customHeight="1"/>
     <row r="33" ht="18" customHeight="1"/>
     <row r="34" ht="18" customHeight="1"/>
     <row r="35" ht="18" customHeight="1"/>
@@ -730,29 +617,8 @@
     <row r="48" ht="18" customHeight="1"/>
     <row r="49" ht="18" customHeight="1"/>
     <row r="50" ht="18" customHeight="1"/>
+    <row r="51" ht="18" customHeight="1"/>
   </sheetData>
-  <mergeCells count="20">
-    <mergeCell ref="B16:E16"/>
-    <mergeCell ref="B17:E17"/>
-    <mergeCell ref="B18:E18"/>
-    <mergeCell ref="B19:E19"/>
-    <mergeCell ref="B20:E20"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="B13:E13"/>
-    <mergeCell ref="B14:E14"/>
-    <mergeCell ref="B15:E15"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="B2:E2"/>
-    <mergeCell ref="B3:E3"/>
-    <mergeCell ref="B4:E4"/>
-    <mergeCell ref="B5:E5"/>
-    <mergeCell ref="B6:E6"/>
-    <mergeCell ref="B7:E7"/>
-    <mergeCell ref="B8:E8"/>
-    <mergeCell ref="B9:E9"/>
-  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
